--- a/BackTest/2020-01-26 BackTest BCH.xlsx
+++ b/BackTest/2020-01-26 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-147.9872277000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-160.0310341500001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-168.2447341500001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-160.3247341500001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-157.1692341500001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-165.0092341500001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-373.57933415</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-374.31163415</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-365.30253415</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-309.96253415</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-374.85943415</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-449.22283415</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-406.04823415</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-416.0522725</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-417.9555725</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-408.3371725</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-547.5423725000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-543.5017725</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-543.5017725</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-488.0517725</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-449.6548725</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-372.0933725</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-378.0933725</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-385.77807747</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-386.10897747</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-392.31777747</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-402.40087747</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-425.2953774699999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-436.1993774699999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-435.86737747</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-432.0007774699999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-436.6660774699999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-425.6214774699999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-425.6214774699999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-389.1244774699999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-368.5205774699999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-372.5627774699999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-409.4982774699999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-410.6484774699999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-420.8842774699999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-420.7711774699999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-415.3481774699999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-446.0804774699999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-500.3569774699999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-500.0336774699999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-486.6179774699999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-499.6179774699999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-524.0766774699998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-627.6744774699998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-628.2484774699998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-627.2484774699998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-631.1484774699998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-633.1484774699998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-644.7110774699997</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-620.6205774699998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-632.8325774699998</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-549.8023236699999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-550.3413236699998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-550.3413236699998</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-550.3413236699998</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-616.1178236699998</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-610.6985236699998</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-615.8112236699998</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-615.2729236699997</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-615.3364236699997</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-564.9517236699998</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-567.0836236699997</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-567.1390236699997</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-567.1390236699997</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-566.0480236699997</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-564.7692236699996</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-561.5122236699997</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-520.8830236699997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-523.9251236699997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-524.6863236699998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-524.7191236699997</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-524.3623236699997</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-520.3169236699997</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-521.9540236699997</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-521.6510234099998</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-525.7069234099997</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-525.4506234099997</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-525.6311234099998</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-527.9995234099997</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-558.9024234099996</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-575.2340234099996</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-575.2340234099996</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-575.2981234099997</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-591.7755234099997</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-578.2066234099997</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-613.4480234099997</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-613.4480234099997</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-596.8090234099997</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-604.0116234099996</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-540.5562234099996</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-540.5562234099996</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-535.5562234099996</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-535.5562234099996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-537.1087234099996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-537.1087234099996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-513.1311234099995</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-466.1927234099995</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-465.9916234099995</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-465.9916234099995</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-475.1439234099994</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-472.3439234099994</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-491.7206234099995</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-491.3206234099995</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-491.5194234099995</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-491.1775234099995</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-477.3478234099995</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-477.0701866399995</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-486.6184663099995</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-486.5916663099995</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-486.6466663099995</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-486.7676663099995</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-499.0379173799995</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-498.9829173799995</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-506.8224173799995</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-546.0843173799994</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-540.8728173799994</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-547.9552173799995</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-548.8722173799995</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-563.9402173799995</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-587.8268173799995</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-587.1566173799995</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-596.8781173799995</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-616.4692173799995</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-616.4692173799995</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-614.3134642199994</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-614.3134642199994</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-610.6699943199994</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-610.8249943199994</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-591.6026943199994</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-591.6059943199994</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-591.6059943199994</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-591.6059943199994</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-591.6059943199994</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-591.6059943199994</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-578.8565943199993</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-570.7143943199993</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-571.3143943199993</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-554.0693943199993</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-554.1674943199994</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-555.1550943199994</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-579.6307943199994</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-580.6307943199994</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-607.3719943199994</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-607.3606943199994</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-616.8056943199995</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-621.3270943199994</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-622.0056943199994</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-644.2185943199994</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-656.2285943199994</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-627.3533943199994</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-627.3533943199994</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-627.3533943199994</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-627.4400943199994</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-627.4400943199994</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-626.1400943199994</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-620.3445943199995</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-622.7871943199995</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-617.6578943199995</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-612.7781943199996</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-612.7781943199996</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-622.5150943199995</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-621.1789943199996</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-620.6789943199996</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-620.5096943199995</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-620.0930943199995</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-622.0959943199995</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-623.6947943199995</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-642.4324943199995</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-642.6050943199995</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-639.3021943199994</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-639.3021943199994</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-585.6239943199995</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-585.3039943199994</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-598.6999943199994</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-598.6799943199994</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-598.6799943199994</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-598.9498943199994</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-602.4520943199994</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-617.4894943199995</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-617.4894943199995</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-649.7021943199995</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-678.3426943199995</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-678.3426943199995</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-689.2631943199995</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-731.4095943199994</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-715.9790943199994</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-717.9920943199994</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-755.6333943199994</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-732.9714943199995</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-822.3549943199995</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-859.4404943199995</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-967.4057943199995</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1191.500494319999</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1156.34989432</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1175.022294319999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1161.836694319999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1163.654094319999</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -17281,11 +17281,17 @@
         <v>-2752.8507427</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>357100</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17320,17 @@
         <v>-2759.8796427</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>357100</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17359,17 @@
         <v>-2757.8696427</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>356600</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17398,17 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>356700</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,15 +17437,17 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>357900</v>
       </c>
-      <c r="J516" t="n">
-        <v>357900</v>
-      </c>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,15 +17476,15 @@
         <v>-2618.69959605</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
         <v>357900</v>
       </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L517" t="n">
@@ -17492,12 +17518,10 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>357900</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L518" t="n">
@@ -17532,7 +17556,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17565,7 +17593,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17598,7 +17630,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17631,7 +17667,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17664,7 +17704,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17697,7 +17741,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17730,7 +17778,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17763,7 +17815,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17796,7 +17852,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17829,7 +17889,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17862,7 +17926,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17895,7 +17963,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17928,7 +18000,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17961,7 +18037,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17994,7 +18074,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18027,7 +18111,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18060,7 +18148,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18093,7 +18185,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18126,7 +18222,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18159,7 +18259,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18192,7 +18296,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18225,7 +18333,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18258,7 +18370,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18291,7 +18407,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18324,7 +18444,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18357,7 +18481,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18390,7 +18518,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18423,7 +18555,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18456,7 +18592,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18489,7 +18629,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18522,7 +18666,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18555,7 +18703,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18588,7 +18740,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18621,7 +18777,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18654,7 +18814,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18687,7 +18851,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18720,7 +18888,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18753,7 +18925,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18786,7 +18962,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18819,7 +18999,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18852,7 +19036,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18885,7 +19073,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18918,7 +19110,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18951,7 +19147,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18984,7 +19184,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19017,7 +19221,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19050,7 +19258,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19083,7 +19295,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19116,7 +19332,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19149,7 +19369,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19182,7 +19406,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19215,7 +19443,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19248,7 +19480,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19281,7 +19517,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19314,7 +19554,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19347,7 +19591,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19380,7 +19628,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19413,7 +19665,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19446,7 +19702,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19479,7 +19739,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19512,7 +19776,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19545,7 +19813,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19578,7 +19850,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19611,7 +19887,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19644,7 +19924,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19677,7 +19961,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19710,7 +19998,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19743,7 +20035,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19776,7 +20072,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19809,7 +20109,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19842,7 +20146,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19875,7 +20183,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19908,7 +20220,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19941,7 +20257,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19974,7 +20294,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20007,7 +20331,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20040,7 +20368,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20073,7 +20405,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20106,7 +20442,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20139,7 +20479,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20172,7 +20516,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20205,7 +20553,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20238,7 +20590,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20271,7 +20627,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20304,7 +20664,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20337,7 +20701,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20370,7 +20738,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20403,7 +20775,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20436,7 +20812,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20469,7 +20849,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20502,7 +20886,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20535,7 +20923,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20568,7 +20960,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20601,7 +20997,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20634,7 +21034,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20667,7 +21071,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20700,7 +21108,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20733,7 +21145,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20766,7 +21182,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20799,7 +21219,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20832,7 +21256,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20865,7 +21293,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20898,7 +21330,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20931,7 +21367,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20964,7 +21404,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20997,7 +21441,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21030,7 +21478,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21063,7 +21515,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21096,7 +21552,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21129,7 +21589,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21162,7 +21626,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21195,7 +21663,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21228,7 +21700,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21261,7 +21737,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21294,7 +21774,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21327,7 +21811,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21360,7 +21848,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21393,7 +21885,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21426,7 +21922,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21459,7 +21959,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21492,7 +21996,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21525,7 +22033,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21558,7 +22070,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21591,7 +22107,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21624,7 +22144,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21657,7 +22181,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21690,7 +22218,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21723,7 +22255,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21756,7 +22292,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21789,7 +22329,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21822,7 +22366,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21855,7 +22403,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21888,7 +22440,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21921,7 +22477,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21954,7 +22514,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21987,7 +22551,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22020,7 +22588,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22053,7 +22625,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22082,11 +22658,15 @@
         <v>-2036.651377580002</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22119,7 +22699,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22152,7 +22736,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22185,7 +22773,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22218,7 +22810,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22251,7 +22847,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22284,7 +22884,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22317,7 +22921,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22350,7 +22958,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22383,7 +22995,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22416,7 +23032,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22449,7 +23069,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22482,7 +23106,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22515,7 +23143,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22548,7 +23180,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22581,7 +23217,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22614,7 +23254,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22647,7 +23291,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22680,7 +23328,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22713,7 +23365,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22746,7 +23402,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22779,7 +23439,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22812,7 +23476,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22845,7 +23513,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22878,7 +23550,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22911,7 +23587,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22944,7 +23624,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22977,7 +23661,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23010,7 +23698,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23039,11 +23731,15 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23076,7 +23772,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23109,7 +23809,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23142,7 +23846,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23171,11 +23879,15 @@
         <v>-1878.914491440002</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23208,7 +23920,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23241,7 +23957,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23274,7 +23994,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23307,7 +24031,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23340,7 +24068,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23373,7 +24105,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23406,7 +24142,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23439,7 +24179,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23472,7 +24216,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23505,7 +24253,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23538,7 +24290,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23571,7 +24327,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23604,7 +24364,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23637,7 +24401,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23670,7 +24438,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23703,7 +24475,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23736,7 +24512,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23769,7 +24549,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23802,7 +24586,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23835,7 +24623,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23868,7 +24660,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23901,7 +24697,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23934,7 +24734,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23967,7 +24771,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24000,7 +24808,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24033,7 +24845,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24066,7 +24882,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24099,7 +24919,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24132,7 +24956,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24165,7 +24993,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24198,7 +25030,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24231,7 +25067,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24264,7 +25104,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24297,7 +25141,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24330,7 +25178,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24363,7 +25215,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24396,7 +25252,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24429,7 +25289,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24462,7 +25326,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24495,7 +25363,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24528,7 +25400,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24561,7 +25437,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24594,7 +25474,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24627,7 +25511,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24660,7 +25548,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24693,7 +25585,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24726,7 +25622,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24759,7 +25659,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24792,7 +25696,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24825,7 +25733,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24858,7 +25770,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24891,7 +25807,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24924,7 +25844,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24957,7 +25881,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24990,7 +25918,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25023,7 +25955,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25056,7 +25992,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25089,7 +26029,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25122,7 +26066,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25155,7 +26103,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25188,7 +26140,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25221,7 +26177,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25254,7 +26214,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25287,7 +26251,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25320,7 +26288,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25353,7 +26325,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25386,7 +26362,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25419,7 +26399,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25452,7 +26436,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25485,7 +26473,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25518,7 +26510,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25551,7 +26547,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25584,7 +26584,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25617,7 +26621,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25650,7 +26658,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25683,7 +26695,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25716,7 +26732,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25749,7 +26769,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25782,7 +26806,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25815,7 +26843,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25848,7 +26880,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25881,7 +26917,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25914,7 +26954,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25947,7 +26991,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25980,7 +27028,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26013,7 +27065,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26046,7 +27102,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26079,7 +27139,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26112,7 +27176,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26145,7 +27213,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26178,7 +27250,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26211,7 +27287,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26244,7 +27324,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26277,7 +27361,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26310,7 +27398,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26343,7 +27435,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26376,7 +27472,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26409,7 +27509,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26442,7 +27546,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26475,7 +27583,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26508,7 +27620,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26541,7 +27657,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26574,7 +27694,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26607,7 +27731,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26640,7 +27768,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26673,7 +27805,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26706,7 +27842,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26739,7 +27879,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26772,7 +27916,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26805,7 +27953,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26838,7 +27990,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26871,7 +28027,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26904,7 +28064,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26937,7 +28101,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26970,7 +28138,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27003,7 +28175,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27036,7 +28212,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27069,7 +28249,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27102,7 +28286,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27135,7 +28323,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27168,7 +28360,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27201,7 +28397,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27234,7 +28434,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27267,7 +28471,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27300,7 +28508,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27333,7 +28545,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27366,7 +28582,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27399,7 +28619,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27432,7 +28656,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27465,7 +28693,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27498,7 +28730,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27531,7 +28767,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27564,7 +28804,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27597,7 +28841,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27630,7 +28878,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27663,7 +28915,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27696,7 +28952,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27729,7 +28989,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27762,7 +29026,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27795,7 +29063,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27828,7 +29100,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27861,7 +29137,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27894,7 +29174,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27927,7 +29211,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27960,7 +29248,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27993,7 +29285,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28026,7 +29322,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28059,7 +29359,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28092,7 +29396,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28125,7 +29433,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28158,7 +29470,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28191,7 +29507,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28224,7 +29544,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28257,7 +29581,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28290,7 +29618,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28323,7 +29655,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28356,7 +29692,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28389,7 +29729,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28422,7 +29766,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28455,7 +29803,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28488,7 +29840,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28521,7 +29877,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28554,7 +29914,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28587,7 +29951,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28620,7 +29988,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28653,7 +30025,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28686,7 +30062,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28719,7 +30099,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28752,7 +30136,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28785,7 +30173,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28818,7 +30210,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28851,7 +30247,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28884,7 +30284,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28917,7 +30321,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28950,7 +30358,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28983,7 +30395,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29016,7 +30432,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29049,7 +30469,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29082,7 +30506,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29115,7 +30543,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29148,7 +30580,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29181,7 +30617,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29214,7 +30654,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29247,7 +30691,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29280,7 +30728,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29313,7 +30765,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29346,7 +30802,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29379,7 +30839,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29412,7 +30876,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29445,7 +30913,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29478,7 +30950,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29511,7 +30987,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29544,7 +31024,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29577,7 +31061,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29610,7 +31098,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29643,7 +31135,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29676,7 +31172,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29709,7 +31209,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29742,7 +31246,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29775,7 +31283,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29808,13 +31320,17 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
       <c r="M891" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BCH.xlsx
+++ b/BackTest/2020-01-26 BackTest BCH.xlsx
@@ -451,7 +451,7 @@
         <v>-147.9872277000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-160.0310341500001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-168.2447341500001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-160.3247341500001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-157.1692341500001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-165.0092341500001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-165.0109341500001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-165.0109341500001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-196.0174341500001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-196.9015341500001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-243.2090341500001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-248.2109341500001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-346.42573415</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-346.42573415</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-379.69593415</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-373.57933415</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-374.31163415</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-365.30253415</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-309.96253415</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-314.10463415</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-567.0836236699997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-567.1390236699997</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-567.1390236699997</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-566.0480236699997</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-564.7692236699996</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-561.5122236699997</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-559.9047236699997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-520.8830236699997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-523.9251236699997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-524.6863236699998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-524.7191236699997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-524.3623236699997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-520.3169236699997</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-521.9540236699997</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-521.6510234099998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-525.7069234099997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-525.4506234099997</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-525.6311234099998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-527.9995234099997</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-558.4973234099997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-558.9024234099996</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-575.2340234099996</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-575.2340234099996</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-513.1311234099995</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-466.1927234099995</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-465.9916234099995</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-467.6888234099995</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-475.1418234099995</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-475.1539234099994</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-475.1439234099994</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-472.3439234099994</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-469.3339234099994</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-462.8979234099995</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-491.7206234099995</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-491.3206234099995</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-491.5194234099995</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-491.1775234099995</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-477.3478234099995</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-477.0701866399995</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-479.2184663099995</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-486.6184663099995</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-486.5916663099995</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-486.6466663099995</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-486.7676663099995</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-499.0379173799995</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-498.9829173799995</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-497.7123173799995</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-506.8224173799995</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-558.1051173799995</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-546.0843173799994</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-540.8728173799994</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-542.2728173799994</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-547.7885173799995</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-547.9552173799995</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-548.8722173799995</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-563.9402173799995</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-554.1674943199994</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-555.1550943199994</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-579.6307943199994</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -17248,11 +17248,17 @@
         <v>-2752.8507427</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>357300</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17287,17 @@
         <v>-2752.8507427</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>357100</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17326,17 @@
         <v>-2759.8796427</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>357100</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17365,17 @@
         <v>-2757.8696427</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>356600</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17404,17 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>356700</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17443,17 @@
         <v>-2746.70097962</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>357900</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17482,17 @@
         <v>-2618.69959605</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>357900</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17521,17 @@
         <v>-2617.48779605</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>358500</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +17564,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +17601,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +17638,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +17675,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17712,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +17749,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17782,17 @@
         <v>-2626.29171949</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>357600</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +17825,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17858,17 @@
         <v>-2624.96581949</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>358400</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17897,17 @@
         <v>-2629.11531949</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>358200</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17936,17 @@
         <v>-2629.11531949</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>357700</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +17975,17 @@
         <v>-2627.68581949</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>357700</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18014,17 @@
         <v>-2594.87341949</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>358700</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18053,17 @@
         <v>-2579.89471949</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>359700</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18092,17 @@
         <v>-2616.97301949</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>360200</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18131,17 @@
         <v>-2617.11331949</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>359600</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18170,17 @@
         <v>-2285.02593537</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>358900</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18213,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18250,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18287,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18324,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18361,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18398,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18435,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18472,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18509,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18546,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18583,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18620,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18657,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +18694,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +18731,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +18768,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +18805,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +18842,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +18879,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +18916,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +18953,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +18990,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +19027,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19064,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19101,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19138,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19175,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19212,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +19249,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +19286,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19323,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +19360,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +19397,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19434,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19471,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +19508,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19545,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +19582,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +19619,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +19656,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19693,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19730,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19767,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19804,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19841,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19878,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19911,17 @@
         <v>-2614.803495270001</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>360100</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19954,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19991,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +20028,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20065,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20102,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +20139,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +20176,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +20213,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +20250,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +20287,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +20324,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20361,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20398,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20435,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20472,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20509,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20546,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20583,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20620,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20657,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20694,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20731,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20768,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20805,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20842,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20879,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,15 +20912,15 @@
         <v>-2657.572795270001</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>360100</v>
-      </c>
-      <c r="J609" t="n">
-        <v>360100</v>
-      </c>
-      <c r="K609" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20524,12 +20954,10 @@
       <c r="I610" t="n">
         <v>360100</v>
       </c>
-      <c r="J610" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L610" t="n">
@@ -20565,12 +20993,10 @@
       <c r="I611" t="n">
         <v>360300</v>
       </c>
-      <c r="J611" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L611" t="n">
@@ -20606,9 +21032,7 @@
       <c r="I612" t="n">
         <v>359800</v>
       </c>
-      <c r="J612" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20647,9 +21071,7 @@
       <c r="I613" t="n">
         <v>360000</v>
       </c>
-      <c r="J613" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20688,9 +21110,7 @@
       <c r="I614" t="n">
         <v>360100</v>
       </c>
-      <c r="J614" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20729,9 +21149,7 @@
       <c r="I615" t="n">
         <v>360300</v>
       </c>
-      <c r="J615" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20770,9 +21188,7 @@
       <c r="I616" t="n">
         <v>360000</v>
       </c>
-      <c r="J616" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20811,9 +21227,7 @@
       <c r="I617" t="n">
         <v>359800</v>
       </c>
-      <c r="J617" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20852,9 +21266,7 @@
       <c r="I618" t="n">
         <v>359800</v>
       </c>
-      <c r="J618" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20893,9 +21305,7 @@
       <c r="I619" t="n">
         <v>359700</v>
       </c>
-      <c r="J619" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20934,9 +21344,7 @@
       <c r="I620" t="n">
         <v>359700</v>
       </c>
-      <c r="J620" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20975,9 +21383,7 @@
       <c r="I621" t="n">
         <v>359300</v>
       </c>
-      <c r="J621" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21016,9 +21422,7 @@
       <c r="I622" t="n">
         <v>360000</v>
       </c>
-      <c r="J622" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21057,9 +21461,7 @@
       <c r="I623" t="n">
         <v>359400</v>
       </c>
-      <c r="J623" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21098,9 +21500,7 @@
       <c r="I624" t="n">
         <v>359500</v>
       </c>
-      <c r="J624" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21139,9 +21539,7 @@
       <c r="I625" t="n">
         <v>359400</v>
       </c>
-      <c r="J625" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21180,9 +21578,7 @@
       <c r="I626" t="n">
         <v>359400</v>
       </c>
-      <c r="J626" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21221,9 +21617,7 @@
       <c r="I627" t="n">
         <v>359100</v>
       </c>
-      <c r="J627" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21262,9 +21656,7 @@
       <c r="I628" t="n">
         <v>359100</v>
       </c>
-      <c r="J628" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21303,9 +21695,7 @@
       <c r="I629" t="n">
         <v>359600</v>
       </c>
-      <c r="J629" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21344,9 +21734,7 @@
       <c r="I630" t="n">
         <v>359200</v>
       </c>
-      <c r="J630" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21385,9 +21773,7 @@
       <c r="I631" t="n">
         <v>359200</v>
       </c>
-      <c r="J631" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21426,9 +21812,7 @@
       <c r="I632" t="n">
         <v>359400</v>
       </c>
-      <c r="J632" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21467,9 +21851,7 @@
       <c r="I633" t="n">
         <v>359400</v>
       </c>
-      <c r="J633" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21508,9 +21890,7 @@
       <c r="I634" t="n">
         <v>360300</v>
       </c>
-      <c r="J634" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21549,9 +21929,7 @@
       <c r="I635" t="n">
         <v>360500</v>
       </c>
-      <c r="J635" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21590,9 +21968,7 @@
       <c r="I636" t="n">
         <v>361100</v>
       </c>
-      <c r="J636" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21626,12 +22002,12 @@
         <v>-2817.826295270001</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>361500</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21665,12 +22041,12 @@
         <v>-2817.826295270001</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>361500</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21704,12 +22080,12 @@
         <v>-2822.052895270001</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>361500</v>
+      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21743,12 +22119,12 @@
         <v>-2803.631695270001</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>360700</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21782,12 +22158,12 @@
         <v>-2803.631695270001</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>360800</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21821,12 +22197,12 @@
         <v>-2732.104295270001</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>360800</v>
+      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21860,12 +22236,12 @@
         <v>-2639.885347760001</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>360100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>363000</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21902,9 +22278,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21941,9 +22315,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21980,9 +22352,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22019,9 +22389,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22058,9 +22426,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22097,9 +22463,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22136,9 +22500,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22175,9 +22537,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22214,9 +22574,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22253,9 +22611,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22292,9 +22648,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22328,19 +22682,17 @@
         <v>-1917.236877580001</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>360100</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L655" t="n">
-        <v>1.020548458761455</v>
+        <v>1</v>
       </c>
       <c r="M655" t="inlineStr"/>
     </row>
@@ -22371,7 +22723,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22404,7 +22760,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22437,7 +22797,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22470,7 +22834,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22503,7 +22871,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22536,7 +22908,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22569,7 +22945,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22602,7 +22982,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22635,7 +23019,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22668,7 +23056,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22701,7 +23093,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22734,7 +23130,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22767,7 +23167,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22800,7 +23204,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22833,7 +23241,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22866,7 +23278,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22899,7 +23315,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22932,7 +23352,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22965,7 +23389,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22998,7 +23426,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23031,7 +23463,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23064,7 +23500,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23093,11 +23533,15 @@
         <v>-1807.802095360002</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23126,11 +23570,15 @@
         <v>-1811.725495360002</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23159,11 +23607,15 @@
         <v>-1811.151995360002</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23192,11 +23644,15 @@
         <v>-1861.255795360002</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23225,11 +23681,15 @@
         <v>-1877.870595360002</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23258,11 +23718,15 @@
         <v>-1876.296495360002</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23291,11 +23755,15 @@
         <v>-1886.461195360002</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23324,11 +23792,15 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23357,11 +23829,15 @@
         <v>-1921.734195360002</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23390,11 +23866,15 @@
         <v>-1906.704195360002</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23423,11 +23903,15 @@
         <v>-1909.720095360002</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23456,11 +23940,15 @@
         <v>-1878.887295360002</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23493,7 +23981,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23526,7 +24018,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23559,7 +24055,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23592,7 +24092,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23625,7 +24129,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23658,7 +24166,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23691,7 +24203,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23724,7 +24240,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23757,7 +24277,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23790,7 +24314,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23823,7 +24351,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23856,7 +24388,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23889,7 +24425,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23922,7 +24462,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23955,7 +24499,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23988,7 +24536,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24021,7 +24573,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24054,7 +24610,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24087,7 +24647,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24120,7 +24684,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24153,7 +24721,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24186,7 +24758,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24219,7 +24795,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24252,7 +24832,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24285,7 +24869,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24318,7 +24906,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24351,7 +24943,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24384,7 +24980,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24417,7 +25017,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24450,7 +25054,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24483,7 +25091,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24516,7 +25128,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24549,7 +25165,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24582,7 +25202,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24615,7 +25239,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24648,7 +25276,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24681,7 +25313,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24714,7 +25350,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24747,7 +25387,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24780,7 +25424,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24813,7 +25461,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24846,7 +25498,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24879,7 +25535,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24912,7 +25572,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24945,7 +25609,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24978,7 +25646,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25011,7 +25683,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25044,7 +25720,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25077,7 +25757,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25110,7 +25794,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25143,7 +25831,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25176,7 +25868,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25209,7 +25905,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25242,7 +25942,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25275,7 +25979,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25308,7 +26016,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25341,7 +26053,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25374,7 +26090,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25407,7 +26127,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25440,7 +26164,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25473,7 +26201,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25506,7 +26238,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25539,7 +26275,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25572,7 +26312,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25605,7 +26349,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25638,7 +26386,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25671,7 +26423,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25704,7 +26460,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25737,7 +26497,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25770,7 +26534,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25803,7 +26571,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25836,7 +26608,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25869,7 +26645,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25902,7 +26682,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25935,7 +26719,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25968,7 +26756,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26001,7 +26793,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26034,7 +26830,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26067,7 +26867,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26100,7 +26904,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26133,7 +26941,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26166,7 +26978,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26199,7 +27015,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26232,7 +27052,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26265,7 +27089,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26298,7 +27126,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26331,7 +27163,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26364,7 +27200,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26397,7 +27237,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26430,7 +27274,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26463,7 +27311,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26496,7 +27348,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26529,7 +27385,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26562,7 +27422,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26595,7 +27459,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26628,7 +27496,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26661,7 +27533,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26694,7 +27570,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26727,7 +27607,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26760,7 +27644,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26793,7 +27681,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26826,7 +27718,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26859,7 +27755,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26892,7 +27792,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26925,7 +27829,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26958,7 +27866,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26991,7 +27903,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27024,7 +27940,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27057,7 +27977,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27090,7 +28014,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27123,7 +28051,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27156,7 +28088,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27189,7 +28125,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27222,7 +28162,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27255,7 +28199,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27288,7 +28236,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27321,7 +28273,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27354,7 +28310,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27387,7 +28347,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27420,7 +28384,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27453,7 +28421,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27486,7 +28458,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27519,7 +28495,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27552,7 +28532,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27585,7 +28569,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27618,7 +28606,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27651,7 +28643,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27684,7 +28680,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27717,7 +28717,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27750,7 +28754,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27783,7 +28791,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27816,7 +28828,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27849,7 +28865,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27882,7 +28902,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27915,7 +28939,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27948,7 +28976,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27981,7 +29013,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28014,7 +29050,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28047,7 +29087,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28080,7 +29124,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28113,7 +29161,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28146,7 +29198,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28179,7 +29235,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28212,7 +29272,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28245,7 +29309,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28278,7 +29346,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28311,7 +29383,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28344,7 +29420,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28377,7 +29457,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28410,7 +29494,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28443,7 +29531,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28476,7 +29568,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28509,7 +29605,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28542,7 +29642,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28575,7 +29679,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28608,7 +29716,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28641,7 +29753,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28674,7 +29790,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28707,7 +29827,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28740,7 +29864,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28773,7 +29901,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28806,7 +29938,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28839,7 +29975,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28872,7 +30012,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28905,7 +30049,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28938,7 +30086,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28971,7 +30123,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29004,7 +30160,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29037,7 +30197,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29070,7 +30234,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29103,7 +30271,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29136,7 +30308,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29169,7 +30345,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29202,7 +30382,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29235,7 +30419,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29268,7 +30456,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29301,7 +30493,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29334,7 +30530,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29367,7 +30567,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29400,7 +30604,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29433,7 +30641,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29466,7 +30678,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29499,7 +30715,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29532,7 +30752,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29565,7 +30789,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29598,7 +30826,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29631,7 +30863,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29664,7 +30900,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29697,7 +30937,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29730,7 +30974,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29763,7 +31011,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29796,7 +31048,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29829,7 +31085,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29862,7 +31122,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29895,7 +31159,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29928,7 +31196,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29961,7 +31233,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29994,7 +31270,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30027,7 +31307,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30060,7 +31344,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30093,7 +31381,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30126,7 +31418,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
